--- a/D3Chart/exploreData/healthData.xlsx
+++ b/D3Chart/exploreData/healthData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="healthData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -343,12 +344,15 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>collegeGrad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1327,7 +1331,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1380,11 +1383,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage of 60+</a:t>
+                  <a:t>% of non</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> non high school grads by state</a:t>
+                  <a:t> high school grads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1502,20 +1505,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage of poor</a:t>
+                  <a:t>%</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> health</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>by state</a:t>
+                  <a:t> of people with poor health</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2196,15 +2190,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>402430</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2529,17 +2523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2559,6 +2554,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -2576,6 +2574,9 @@
       <c r="E2">
         <v>7.3</v>
       </c>
+      <c r="F2">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -2593,6 +2594,9 @@
       <c r="E3">
         <v>3.8</v>
       </c>
+      <c r="F3">
+        <v>36.5</v>
+      </c>
       <c r="R3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2613,6 +2617,9 @@
       <c r="E4">
         <v>4.5</v>
       </c>
+      <c r="F4">
+        <v>34.200000000000003</v>
+      </c>
       <c r="R4" s="2">
         <v>0.730735939</v>
       </c>
@@ -2633,6 +2640,9 @@
       <c r="E5">
         <v>7.5</v>
       </c>
+      <c r="F5">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -2650,6 +2660,9 @@
       <c r="E6">
         <v>4.5999999999999996</v>
       </c>
+      <c r="F6">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -2667,6 +2680,9 @@
       <c r="E7">
         <v>3.1</v>
       </c>
+      <c r="F7">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -2684,6 +2700,9 @@
       <c r="E8">
         <v>3</v>
       </c>
+      <c r="F8">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -2701,6 +2720,9 @@
       <c r="E9">
         <v>3.5</v>
       </c>
+      <c r="F9">
+        <v>27.2</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -2718,6 +2740,9 @@
       <c r="E10">
         <v>3.5</v>
       </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -2735,6 +2760,9 @@
       <c r="E11">
         <v>5.0999999999999996</v>
       </c>
+      <c r="F11">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -2752,6 +2780,9 @@
       <c r="E12">
         <v>5.7</v>
       </c>
+      <c r="F12">
+        <v>28.2</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -2769,6 +2800,9 @@
       <c r="E13">
         <v>3.3</v>
       </c>
+      <c r="F13">
+        <v>32.200000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -2786,6 +2820,9 @@
       <c r="E14">
         <v>3.7</v>
       </c>
+      <c r="F14">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -2803,6 +2840,9 @@
       <c r="E15">
         <v>3.8</v>
       </c>
+      <c r="F15">
+        <v>28.7</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -2820,8 +2860,11 @@
       <c r="E16">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2837,8 +2880,11 @@
       <c r="E17">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2854,8 +2900,11 @@
       <c r="E18">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2871,8 +2920,11 @@
       <c r="E19">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2888,8 +2940,11 @@
       <c r="E20">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2905,8 +2960,11 @@
       <c r="E21">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2922,8 +2980,11 @@
       <c r="E22">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2939,8 +3000,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2956,8 +3020,11 @@
       <c r="E24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2973,8 +3040,11 @@
       <c r="E25">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2990,8 +3060,11 @@
       <c r="E26">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3007,8 +3080,11 @@
       <c r="E27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3024,8 +3100,11 @@
       <c r="E28">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3041,8 +3120,11 @@
       <c r="E29">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3058,8 +3140,11 @@
       <c r="E30">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3075,8 +3160,11 @@
       <c r="E31">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3092,8 +3180,11 @@
       <c r="E32">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3109,8 +3200,11 @@
       <c r="E33">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3126,8 +3220,11 @@
       <c r="E34">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3143,8 +3240,11 @@
       <c r="E35">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3160,8 +3260,11 @@
       <c r="E36">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3177,8 +3280,11 @@
       <c r="E37">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3194,8 +3300,11 @@
       <c r="E38">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3211,8 +3320,11 @@
       <c r="E39">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3228,8 +3340,11 @@
       <c r="E40">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3245,8 +3360,11 @@
       <c r="E41">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3262,8 +3380,11 @@
       <c r="E42">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3279,8 +3400,11 @@
       <c r="E43">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3296,8 +3420,11 @@
       <c r="E44">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3313,8 +3440,11 @@
       <c r="E45">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3330,8 +3460,11 @@
       <c r="E46">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3347,8 +3480,11 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3364,8 +3500,11 @@
       <c r="E48">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3381,8 +3520,11 @@
       <c r="E49">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3398,8 +3540,11 @@
       <c r="E50">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3415,8 +3560,11 @@
       <c r="E51">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3431,10 +3579,452 @@
       </c>
       <c r="E52">
         <v>3.5</v>
+      </c>
+      <c r="F52">
+        <v>38.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F56E08-B6D0-457E-89BB-8A3F9A11FC48}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1">
+        <f>CORREL(A2:A52,B2:B52)</f>
+        <v>-0.1684083795910174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>29.7</v>
+      </c>
+      <c r="B2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>36.5</v>
+      </c>
+      <c r="B3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>29.1</v>
+      </c>
+      <c r="B5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>29.5</v>
+      </c>
+      <c r="B6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>30.3</v>
+      </c>
+      <c r="B7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>24.5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>27.2</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>30.4</v>
+      </c>
+      <c r="B11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>28.2</v>
+      </c>
+      <c r="B12">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B13">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>36.9</v>
+      </c>
+      <c r="B14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>28.7</v>
+      </c>
+      <c r="B15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>29.5</v>
+      </c>
+      <c r="B16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B17">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>28.4</v>
+      </c>
+      <c r="B19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>26.9</v>
+      </c>
+      <c r="B20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>25.7</v>
+      </c>
+      <c r="B22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23.6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>32.9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>32.6</v>
+      </c>
+      <c r="B25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>31.7</v>
+      </c>
+      <c r="B26">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>33.5</v>
+      </c>
+      <c r="B29">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B30">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>28.6</v>
+      </c>
+      <c r="B31">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>23.5</v>
+      </c>
+      <c r="B32">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31.4</v>
+      </c>
+      <c r="B33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>24.7</v>
+      </c>
+      <c r="B34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>31.1</v>
+      </c>
+      <c r="B35">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>36.9</v>
+      </c>
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>28.8</v>
+      </c>
+      <c r="B37">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>31.4</v>
+      </c>
+      <c r="B38">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>34.6</v>
+      </c>
+      <c r="B39">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>24.1</v>
+      </c>
+      <c r="B40">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>26.6</v>
+      </c>
+      <c r="B41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>29.5</v>
+      </c>
+      <c r="B42">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="B43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>27.2</v>
+      </c>
+      <c r="B44">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>29.2</v>
+      </c>
+      <c r="B45">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B46">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>26.5</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>27.2</v>
+      </c>
+      <c r="B48">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>34.5</v>
+      </c>
+      <c r="B49">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>24.9</v>
+      </c>
+      <c r="B50">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>31</v>
+      </c>
+      <c r="B51">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>38.6</v>
+      </c>
+      <c r="B52">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>